--- a/doc/Experiment results of BLIA.xlsx
+++ b/doc/Experiment results of BLIA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\BLIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\BLIA\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="6720" tabRatio="897" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="6720" tabRatio="897" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1-Table3" sheetId="1" r:id="rId1"/>
@@ -935,12 +935,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -951,6 +945,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,11 +1356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305183448"/>
-        <c:axId val="305180312"/>
+        <c:axId val="3009088"/>
+        <c:axId val="211487096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305183448"/>
+        <c:axId val="3009088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1480,7 +1479,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305180312"/>
+        <c:crossAx val="211487096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1488,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305180312"/>
+        <c:axId val="211487096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1520,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1588,7 +1586,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305183448"/>
+        <c:crossAx val="3009088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1602,7 +1600,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1731,23 +1728,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -3029,12 +3009,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="249845904"/>
-        <c:axId val="421227496"/>
-        <c:axId val="468679760"/>
+        <c:axId val="158262312"/>
+        <c:axId val="213421992"/>
+        <c:axId val="213370440"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="249845904"/>
+        <c:axId val="158262312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3055,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3084,23 +3063,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -3137,7 +3099,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421227496"/>
+        <c:crossAx val="213421992"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3145,7 +3107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421227496"/>
+        <c:axId val="213421992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -3171,12 +3133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249845904"/>
+        <c:crossAx val="158262312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="468679760"/>
+        <c:axId val="213370440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3179,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3226,23 +3187,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3278,7 +3222,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421227496"/>
+        <c:crossAx val="213421992"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -3331,47 +3275,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3732,11 +3635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426547880"/>
-        <c:axId val="426548272"/>
+        <c:axId val="213474408"/>
+        <c:axId val="213474800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426547880"/>
+        <c:axId val="213474408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,6 +3659,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" cap="none" baseline="0"/>
+                  <a:t>Value of k</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1" cap="none" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3793,7 +3753,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426548272"/>
+        <c:crossAx val="213474800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3801,13 +3761,70 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426548272"/>
+        <c:axId val="213474800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
+                  <a:t>MAP</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3845,7 +3862,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426547880"/>
+        <c:crossAx val="213474408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4223,11 +4240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296415376"/>
-        <c:axId val="296416944"/>
+        <c:axId val="213475584"/>
+        <c:axId val="213475976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296415376"/>
+        <c:axId val="213475584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,6 +4264,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1" cap="none" baseline="0"/>
+                  <a:t>Value of k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4284,7 +4357,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296416944"/>
+        <c:crossAx val="213475976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4292,13 +4365,70 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296416944"/>
+        <c:axId val="213475976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
+                  <a:t>MRR</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4336,7 +4466,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296415376"/>
+        <c:crossAx val="213475584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5343,11 +5473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="301128280"/>
-        <c:axId val="301127888"/>
+        <c:axId val="213923960"/>
+        <c:axId val="213924352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="301128280"/>
+        <c:axId val="213923960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,7 +5591,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301127888"/>
+        <c:crossAx val="213924352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5469,7 +5599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301127888"/>
+        <c:axId val="213924352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -5570,7 +5700,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301128280"/>
+        <c:crossAx val="213923960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5916,11 +6046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333690496"/>
-        <c:axId val="333690888"/>
+        <c:axId val="213925136"/>
+        <c:axId val="213925528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="333690496"/>
+        <c:axId val="213925136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,7 +6163,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333690888"/>
+        <c:crossAx val="213925528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6041,7 +6171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333690888"/>
+        <c:axId val="213925528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -6143,7 +6273,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333690496"/>
+        <c:crossAx val="213925136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -6612,11 +6742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332430624"/>
-        <c:axId val="332429840"/>
+        <c:axId val="211714488"/>
+        <c:axId val="211489552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332430624"/>
+        <c:axId val="211714488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6679,7 +6809,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6746,7 +6875,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332429840"/>
+        <c:crossAx val="211489552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6754,7 +6883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332429840"/>
+        <c:axId val="211489552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6787,7 +6916,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6854,7 +6982,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332430624"/>
+        <c:crossAx val="211714488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6868,7 +6996,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7322,11 +7449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327831608"/>
-        <c:axId val="327832000"/>
+        <c:axId val="211776816"/>
+        <c:axId val="211396432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327831608"/>
+        <c:axId val="211776816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7446,7 +7573,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327832000"/>
+        <c:crossAx val="211396432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7454,7 +7581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327832000"/>
+        <c:axId val="211396432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7554,7 +7681,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327831608"/>
+        <c:crossAx val="211776816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8022,11 +8149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327837880"/>
-        <c:axId val="327837488"/>
+        <c:axId val="158259568"/>
+        <c:axId val="158260352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327837880"/>
+        <c:axId val="158259568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8156,7 +8283,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327837488"/>
+        <c:crossAx val="158260352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8164,7 +8291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327837488"/>
+        <c:axId val="158260352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8264,7 +8391,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327837880"/>
+        <c:crossAx val="158259568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8407,23 +8534,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -9703,12 +9813,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="421231112"/>
-        <c:axId val="421229936"/>
-        <c:axId val="417150232"/>
+        <c:axId val="158261136"/>
+        <c:axId val="158261528"/>
+        <c:axId val="212062856"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="421231112"/>
+        <c:axId val="158261136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9758,23 +9868,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -9810,7 +9903,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421229936"/>
+        <c:crossAx val="158261528"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9818,7 +9911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421229936"/>
+        <c:axId val="158261528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.14000000000000001"/>
@@ -9843,12 +9936,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421231112"/>
+        <c:crossAx val="158261136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="417150232"/>
+        <c:axId val="212062856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9898,23 +9991,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -9949,7 +10025,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421229936"/>
+        <c:crossAx val="158261528"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -9962,6 +10038,86 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10088,23 +10244,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -11386,12 +11525,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="308598008"/>
-        <c:axId val="308599576"/>
-        <c:axId val="413025560"/>
+        <c:axId val="212412096"/>
+        <c:axId val="212412488"/>
+        <c:axId val="212455864"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="308598008"/>
+        <c:axId val="212412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11432,7 +11571,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11441,23 +11579,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -11494,7 +11615,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308599576"/>
+        <c:crossAx val="212412488"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11502,7 +11623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308599576"/>
+        <c:axId val="212412488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -11528,12 +11649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308598008"/>
+        <c:crossAx val="212412096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="413025560"/>
+        <c:axId val="212455864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11574,7 +11695,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11583,23 +11703,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -11635,7 +11738,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308599576"/>
+        <c:crossAx val="212412488"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -11688,27 +11791,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11834,23 +11916,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -13132,12 +13197,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="421228280"/>
-        <c:axId val="183878944"/>
-        <c:axId val="330417104"/>
+        <c:axId val="212413272"/>
+        <c:axId val="212413664"/>
+        <c:axId val="212867728"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="421228280"/>
+        <c:axId val="212413272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13187,23 +13252,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -13240,7 +13288,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183878944"/>
+        <c:crossAx val="212413664"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13248,7 +13296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183878944"/>
+        <c:axId val="212413664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.14000000000000001"/>
@@ -13274,12 +13322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421228280"/>
+        <c:crossAx val="212413272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="330417104"/>
+        <c:axId val="212867728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13329,23 +13377,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -13381,7 +13412,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183878944"/>
+        <c:crossAx val="212413664"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -13456,6 +13487,26 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -13600,23 +13651,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -14898,12 +14932,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="249847472"/>
-        <c:axId val="249847080"/>
-        <c:axId val="420996200"/>
+        <c:axId val="212411312"/>
+        <c:axId val="212414448"/>
+        <c:axId val="213122976"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="249847472"/>
+        <c:axId val="212411312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14944,7 +14978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14953,23 +14986,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -15006,7 +15022,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249847080"/>
+        <c:crossAx val="212414448"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15014,7 +15030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249847080"/>
+        <c:axId val="212414448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -15040,12 +15056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249847472"/>
+        <c:crossAx val="212411312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="420996200"/>
+        <c:axId val="213122976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15086,7 +15102,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15095,23 +15110,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -15147,7 +15145,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249847080"/>
+        <c:crossAx val="212414448"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -15200,27 +15198,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15346,23 +15323,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -16644,12 +16604,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="426667072"/>
-        <c:axId val="426661584"/>
-        <c:axId val="245797232"/>
+        <c:axId val="212411704"/>
+        <c:axId val="158263096"/>
+        <c:axId val="211738744"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="426667072"/>
+        <c:axId val="212411704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16690,7 +16650,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16699,23 +16658,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -16752,7 +16694,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426661584"/>
+        <c:crossAx val="158263096"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16760,7 +16702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426661584"/>
+        <c:axId val="158263096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.14000000000000001"/>
@@ -16786,12 +16728,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426667072"/>
+        <c:crossAx val="212411704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="245797232"/>
+        <c:axId val="211738744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16832,7 +16774,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16841,23 +16782,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -16893,7 +16817,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426661584"/>
+        <c:crossAx val="158263096"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -16946,47 +16870,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23527,7 +23410,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -23550,7 +23433,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -23571,7 +23454,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -23592,7 +23475,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -23613,7 +23496,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -23634,7 +23517,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -23657,7 +23540,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -23678,7 +23561,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -23699,7 +23582,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -23720,7 +23603,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -23741,7 +23624,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -23764,7 +23647,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -23785,7 +23668,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -23806,28 +23689,28 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -23962,7 +23845,7 @@
       <c r="N2">
         <v>15</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>42144.839317129627</v>
       </c>
     </row>
@@ -24009,7 +23892,7 @@
       <c r="N3">
         <v>30</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>42144.84070601852</v>
       </c>
     </row>
@@ -24056,7 +23939,7 @@
       <c r="N4">
         <v>60</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>42144.842164351852</v>
       </c>
     </row>
@@ -24103,7 +23986,7 @@
       <c r="N5">
         <v>90</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>42144.843576388892</v>
       </c>
     </row>
@@ -24150,7 +24033,7 @@
       <c r="N6">
         <v>120</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>42144.845000000001</v>
       </c>
     </row>
@@ -24197,7 +24080,7 @@
       <c r="N7">
         <v>15</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>42144.837291666663</v>
       </c>
     </row>
@@ -24244,7 +24127,7 @@
       <c r="N8">
         <v>30</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>42144.837361111109</v>
       </c>
     </row>
@@ -24291,7 +24174,7 @@
       <c r="N9">
         <v>60</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>42144.837430555555</v>
       </c>
     </row>
@@ -24338,7 +24221,7 @@
       <c r="N10">
         <v>90</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42144.837500000001</v>
       </c>
     </row>
@@ -24385,7 +24268,7 @@
       <c r="N11">
         <v>120</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>42144.837569444448</v>
       </c>
     </row>
@@ -24432,7 +24315,7 @@
       <c r="N12">
         <v>15</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>42144.8359837963</v>
       </c>
     </row>
@@ -24479,7 +24362,7 @@
       <c r="N13">
         <v>30</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>42144.835995370369</v>
       </c>
     </row>
@@ -24526,7 +24409,7 @@
       <c r="N14">
         <v>60</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>42144.836006944446</v>
       </c>
     </row>
@@ -24573,7 +24456,7 @@
       <c r="N15">
         <v>90</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>42144.836018518516</v>
       </c>
     </row>
@@ -24620,7 +24503,7 @@
       <c r="N16">
         <v>120</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>42144.836030092592</v>
       </c>
     </row>
@@ -24637,8 +24520,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24829,7 +24712,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
@@ -24952,27 +24835,27 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f>SUM(B3:B5)</f>
+        <f t="shared" ref="B6:G6" si="3">SUM(B3:B5)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>SUM(C3:C5)</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D6">
-        <f>SUM(D3:D5)</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="E6">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>SUM(F3:F5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>SUM(G3:G5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25013,15 +24896,15 @@
         <v>0.72000000000000008</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:F9" si="3">$B$9*(1-D8)</f>
+        <f t="shared" ref="D9:F9" si="4">$B$9*(1-D8)</f>
         <v>0.64000000000000012</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48</v>
       </c>
     </row>
@@ -25037,15 +24920,15 @@
         <v>0.18000000000000002</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:F10" si="4">$B$10*(1-D8)</f>
+        <f t="shared" ref="D10:F10" si="5">$B$10*(1-D8)</f>
         <v>0.16000000000000003</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
     </row>
@@ -25061,15 +24944,15 @@
         <v>0.9</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:F11" si="5">$B$11*(1-D8)</f>
+        <f t="shared" ref="D11:F11" si="6">$B$11*(1-D8)</f>
         <v>0.8</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
     </row>
@@ -25082,41 +24965,41 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:F12" si="6">C8</f>
+        <f t="shared" ref="C12:F12" si="7">C8</f>
         <v>0.1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
-        <f t="shared" ref="B13:F13" si="7">SUM(B9:B12)</f>
+        <f t="shared" ref="B13:F13" si="8">SUM(B9:B12)</f>
         <v>2</v>
       </c>
       <c r="C13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="D13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="E13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
     </row>
@@ -25126,19 +25009,19 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:F14" si="8">SUM(C9:C11)</f>
+        <f t="shared" ref="C14:F14" si="9">SUM(C9:C11)</f>
         <v>1.8000000000000003</v>
       </c>
       <c r="D14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="F14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -25185,23 +25068,23 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C19" si="9">C10/$C$13</f>
+        <f t="shared" ref="C17:C19" si="10">C10/$C$13</f>
         <v>9.4736842105263147E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D19" si="10">D10/$D$13</f>
+        <f t="shared" ref="D17:D19" si="11">D10/$D$13</f>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E19" si="11">E10/$E$13</f>
+        <f t="shared" ref="E17:E19" si="12">E10/$E$13</f>
         <v>8.2352941176470587E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F19" si="12">F10/$F$13</f>
+        <f t="shared" ref="F17:F19" si="13">F10/$F$13</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G19" si="13">AVERAGE(B17:F17)</f>
+        <f t="shared" ref="G17:G19" si="14">AVERAGE(B17:F17)</f>
         <v>8.8195734434124526E-2</v>
       </c>
     </row>
@@ -25214,23 +25097,23 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.47368421052631571</v>
       </c>
       <c r="D18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44444444444444448</v>
       </c>
       <c r="E18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="F18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="G18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.44097867217062259</v>
       </c>
     </row>
@@ -25243,23 +25126,23 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2631578947368411E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11111111111111112</v>
       </c>
       <c r="E19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="F19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="G19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11804265565875474</v>
       </c>
     </row>
@@ -25269,23 +25152,23 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:G20" si="14">SUM(C16:C19)</f>
+        <f t="shared" ref="C20:G20" si="15">SUM(C16:C19)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="D20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="E20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -25303,7 +25186,7 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
@@ -25402,7 +25285,7 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>42144.883831018517</v>
       </c>
     </row>
@@ -25449,7 +25332,7 @@
       <c r="N3">
         <v>90</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>42144.88553240741</v>
       </c>
     </row>
@@ -25496,7 +25379,7 @@
       <c r="N4">
         <v>90</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>42144.886840277781</v>
       </c>
     </row>
@@ -25543,7 +25426,7 @@
       <c r="N5">
         <v>90</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>42144.887812499997</v>
       </c>
     </row>
@@ -25590,7 +25473,7 @@
       <c r="N6">
         <v>90</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>42144.888645833336</v>
       </c>
     </row>
@@ -25637,7 +25520,7 @@
       <c r="N7">
         <v>15</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>42144.879467592589</v>
       </c>
     </row>
@@ -25684,7 +25567,7 @@
       <c r="N8">
         <v>15</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>42144.880115740743</v>
       </c>
     </row>
@@ -25731,7 +25614,7 @@
       <c r="N9">
         <v>15</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>42144.880578703705</v>
       </c>
     </row>
@@ -25778,7 +25661,7 @@
       <c r="N10">
         <v>15</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42144.881030092591</v>
       </c>
     </row>
@@ -25825,7 +25708,7 @@
       <c r="N11">
         <v>15</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>42144.881504629629</v>
       </c>
     </row>
@@ -25843,7 +25726,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17">
@@ -25854,7 +25737,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>0.5</v>
       </c>
       <c r="B18">
@@ -25865,7 +25748,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>0.2</v>
       </c>
       <c r="B19">
@@ -25876,7 +25759,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>0.1</v>
       </c>
       <c r="B20">
@@ -25887,7 +25770,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>0.05</v>
       </c>
       <c r="B21">
@@ -25911,7 +25794,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>1</v>
       </c>
       <c r="B25">
@@ -25922,7 +25805,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>0.5</v>
       </c>
       <c r="B26">
@@ -25933,7 +25816,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>0.2</v>
       </c>
       <c r="B27">
@@ -25944,7 +25827,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>0.1</v>
       </c>
       <c r="B28">
@@ -25955,7 +25838,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>0.05</v>
       </c>
       <c r="B29">
@@ -25976,7 +25859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -26086,7 +25969,7 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <v>42144.632997685185</v>
       </c>
     </row>
@@ -26133,7 +26016,7 @@
       <c r="N3">
         <v>90</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>42144.633634259262</v>
       </c>
     </row>
@@ -26180,7 +26063,7 @@
       <c r="N4">
         <v>90</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>42144.634270833332</v>
       </c>
     </row>
@@ -26227,7 +26110,7 @@
       <c r="N5">
         <v>90</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>42144.63490740741</v>
       </c>
     </row>
@@ -26274,7 +26157,7 @@
       <c r="N6">
         <v>90</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>42144.635555555556</v>
       </c>
     </row>
@@ -26321,7 +26204,7 @@
       <c r="N7">
         <v>90</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>42144.636192129627</v>
       </c>
     </row>
@@ -26368,7 +26251,7 @@
       <c r="N8">
         <v>90</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>42144.636817129627</v>
       </c>
     </row>
@@ -26415,7 +26298,7 @@
       <c r="N9">
         <v>90</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>42144.637442129628</v>
       </c>
     </row>
@@ -26462,7 +26345,7 @@
       <c r="N10">
         <v>90</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="4">
         <v>42144.638078703705</v>
       </c>
     </row>
@@ -26509,7 +26392,7 @@
       <c r="N11">
         <v>90</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="4">
         <v>42144.638726851852</v>
       </c>
     </row>
@@ -26556,7 +26439,7 @@
       <c r="N12">
         <v>15</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="4">
         <v>42144.631643518522</v>
       </c>
     </row>
@@ -26603,7 +26486,7 @@
       <c r="N13">
         <v>15</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="4">
         <v>42144.631666666668</v>
       </c>
     </row>
@@ -26650,7 +26533,7 @@
       <c r="N14">
         <v>15</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="4">
         <v>42144.631689814814</v>
       </c>
     </row>
@@ -26697,7 +26580,7 @@
       <c r="N15">
         <v>15</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="4">
         <v>42144.631712962961</v>
       </c>
     </row>
@@ -26744,7 +26627,7 @@
       <c r="N16">
         <v>15</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="4">
         <v>42144.631724537037</v>
       </c>
     </row>
@@ -26791,7 +26674,7 @@
       <c r="N17">
         <v>15</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="4">
         <v>42144.631747685184</v>
       </c>
     </row>
@@ -26838,7 +26721,7 @@
       <c r="N18">
         <v>15</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="4">
         <v>42144.63177083333</v>
       </c>
     </row>
@@ -26885,7 +26768,7 @@
       <c r="N19">
         <v>15</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="4">
         <v>42144.631782407407</v>
       </c>
     </row>
@@ -26932,7 +26815,7 @@
       <c r="N20">
         <v>15</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="4">
         <v>42144.631805555553</v>
       </c>
     </row>
@@ -26979,7 +26862,7 @@
       <c r="N21">
         <v>15</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="4">
         <v>42144.631828703707</v>
       </c>
     </row>
@@ -27026,7 +26909,7 @@
       <c r="N22">
         <v>15</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="4">
         <v>42144.632118055553</v>
       </c>
     </row>
@@ -27073,7 +26956,7 @@
       <c r="N23">
         <v>15</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="4">
         <v>42144.63212962963</v>
       </c>
     </row>
@@ -27120,7 +27003,7 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="4">
         <v>42144.63212962963</v>
       </c>
     </row>
@@ -27167,7 +27050,7 @@
       <c r="N25">
         <v>15</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <v>42144.63212962963</v>
       </c>
     </row>
@@ -27214,7 +27097,7 @@
       <c r="N26">
         <v>15</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="4">
         <v>42144.632141203707</v>
       </c>
     </row>
@@ -27261,7 +27144,7 @@
       <c r="N27">
         <v>15</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="4">
         <v>42144.632141203707</v>
       </c>
     </row>
@@ -27308,7 +27191,7 @@
       <c r="N28">
         <v>15</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="4">
         <v>42144.632141203707</v>
       </c>
     </row>
@@ -27355,7 +27238,7 @@
       <c r="N29">
         <v>15</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="4">
         <v>42144.632152777776</v>
       </c>
     </row>
@@ -27402,7 +27285,7 @@
       <c r="N30">
         <v>15</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="4">
         <v>42144.632152777776</v>
       </c>
     </row>
@@ -27449,7 +27332,7 @@
       <c r="N31">
         <v>15</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="4">
         <v>42144.632152777776</v>
       </c>
     </row>
@@ -27892,7 +27775,7 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>42144.649733796294</v>
       </c>
     </row>
@@ -27939,7 +27822,7 @@
       <c r="N3">
         <v>90</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>42144.650405092594</v>
       </c>
     </row>
@@ -27986,7 +27869,7 @@
       <c r="N4">
         <v>90</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>42144.651064814818</v>
       </c>
     </row>
@@ -28033,7 +27916,7 @@
       <c r="N5">
         <v>90</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>42144.651724537034</v>
       </c>
     </row>
@@ -28080,7 +27963,7 @@
       <c r="N6">
         <v>90</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>42144.652384259258</v>
       </c>
     </row>
@@ -28127,7 +28010,7 @@
       <c r="N7">
         <v>90</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>42144.653101851851</v>
       </c>
     </row>
@@ -28174,7 +28057,7 @@
       <c r="N8">
         <v>90</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>42144.653761574074</v>
       </c>
     </row>
@@ -28221,7 +28104,7 @@
       <c r="N9">
         <v>90</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>42144.654409722221</v>
       </c>
     </row>
@@ -28268,7 +28151,7 @@
       <c r="N10">
         <v>90</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42144.655057870368</v>
       </c>
     </row>
@@ -28315,7 +28198,7 @@
       <c r="N11">
         <v>90</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>42144.655717592592</v>
       </c>
     </row>
@@ -28362,7 +28245,7 @@
       <c r="N12">
         <v>15</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>42144.698599537034</v>
       </c>
     </row>
@@ -28409,7 +28292,7 @@
       <c r="N13">
         <v>15</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>42144.698622685188</v>
       </c>
     </row>
@@ -28456,7 +28339,7 @@
       <c r="N14">
         <v>15</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>42144.698634259257</v>
       </c>
     </row>
@@ -28503,7 +28386,7 @@
       <c r="N15">
         <v>15</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>42144.698657407411</v>
       </c>
     </row>
@@ -28550,7 +28433,7 @@
       <c r="N16">
         <v>15</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>42144.698680555557</v>
       </c>
     </row>
@@ -28597,7 +28480,7 @@
       <c r="N17">
         <v>15</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>42144.698692129627</v>
       </c>
     </row>
@@ -28644,7 +28527,7 @@
       <c r="N18">
         <v>15</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>42144.69871527778</v>
       </c>
     </row>
@@ -28691,7 +28574,7 @@
       <c r="N19">
         <v>15</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>42144.698738425926</v>
       </c>
     </row>
@@ -28738,7 +28621,7 @@
       <c r="N20">
         <v>15</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>42144.698750000003</v>
       </c>
     </row>
@@ -28785,7 +28668,7 @@
       <c r="N21">
         <v>15</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>42144.698773148149</v>
       </c>
     </row>
@@ -28832,7 +28715,7 @@
       <c r="N22">
         <v>15</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -28879,7 +28762,7 @@
       <c r="N23">
         <v>15</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -28926,7 +28809,7 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -28973,7 +28856,7 @@
       <c r="N25">
         <v>15</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -29020,7 +28903,7 @@
       <c r="N26">
         <v>15</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -29067,7 +28950,7 @@
       <c r="N27">
         <v>15</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -29114,7 +28997,7 @@
       <c r="N28">
         <v>15</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -29161,7 +29044,7 @@
       <c r="N29">
         <v>15</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -29208,7 +29091,7 @@
       <c r="N30">
         <v>15</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -29255,7 +29138,7 @@
       <c r="N31">
         <v>15</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -29272,7 +29155,7 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29702,7 +29585,7 @@
       <c r="N2">
         <v>90</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>42144.706099537034</v>
       </c>
     </row>
@@ -29749,7 +29632,7 @@
       <c r="N3">
         <v>90</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>42144.706805555557</v>
       </c>
     </row>
@@ -29796,7 +29679,7 @@
       <c r="N4">
         <v>90</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>42144.70753472222</v>
       </c>
     </row>
@@ -29843,7 +29726,7 @@
       <c r="N5">
         <v>90</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>42144.708240740743</v>
       </c>
     </row>
@@ -29890,7 +29773,7 @@
       <c r="N6">
         <v>90</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>42144.70894675926</v>
       </c>
     </row>
@@ -29937,7 +29820,7 @@
       <c r="N7">
         <v>90</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>42144.709652777776</v>
       </c>
     </row>
@@ -29984,7 +29867,7 @@
       <c r="N8">
         <v>90</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>42144.710358796299</v>
       </c>
     </row>
@@ -30031,7 +29914,7 @@
       <c r="N9">
         <v>90</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>42144.711064814815</v>
       </c>
     </row>
@@ -30078,7 +29961,7 @@
       <c r="N10">
         <v>90</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42144.711770833332</v>
       </c>
     </row>
@@ -30125,7 +30008,7 @@
       <c r="N11">
         <v>90</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>42144.712476851855</v>
       </c>
     </row>
@@ -30172,7 +30055,7 @@
       <c r="N12">
         <v>90</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>42144.713171296295</v>
       </c>
     </row>
@@ -30219,7 +30102,7 @@
       <c r="N13">
         <v>90</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>42144.713854166665</v>
       </c>
     </row>
@@ -30266,7 +30149,7 @@
       <c r="N14">
         <v>90</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>42144.714560185188</v>
       </c>
     </row>
@@ -30313,7 +30196,7 @@
       <c r="N15">
         <v>90</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>42144.715243055558</v>
       </c>
     </row>
@@ -30360,7 +30243,7 @@
       <c r="N16">
         <v>90</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>42144.715960648151</v>
       </c>
     </row>
@@ -30407,7 +30290,7 @@
       <c r="N17">
         <v>90</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>42144.716666666667</v>
       </c>
     </row>
@@ -30454,7 +30337,7 @@
       <c r="N18">
         <v>90</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>42144.717372685183</v>
       </c>
     </row>
@@ -30501,7 +30384,7 @@
       <c r="N19">
         <v>90</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>42144.718090277776</v>
       </c>
     </row>
@@ -30548,7 +30431,7 @@
       <c r="N20">
         <v>90</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>42144.718784722223</v>
       </c>
     </row>
@@ -30595,7 +30478,7 @@
       <c r="N21">
         <v>90</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>42144.719490740739</v>
       </c>
     </row>
@@ -30642,7 +30525,7 @@
       <c r="N22">
         <v>90</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>42144.720173611109</v>
       </c>
     </row>
@@ -30689,7 +30572,7 @@
       <c r="N23">
         <v>90</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>42144.720879629633</v>
       </c>
     </row>
@@ -30736,7 +30619,7 @@
       <c r="N24">
         <v>90</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>42144.721574074072</v>
       </c>
     </row>
@@ -30783,7 +30666,7 @@
       <c r="N25">
         <v>90</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="3">
         <v>42144.722256944442</v>
       </c>
     </row>
@@ -30830,7 +30713,7 @@
       <c r="N26">
         <v>90</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>42144.722951388889</v>
       </c>
     </row>
@@ -30877,7 +30760,7 @@
       <c r="N27">
         <v>90</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>42144.723657407405</v>
       </c>
     </row>
@@ -30924,7 +30807,7 @@
       <c r="N28">
         <v>90</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>42144.724340277775</v>
       </c>
     </row>
@@ -30971,7 +30854,7 @@
       <c r="N29">
         <v>90</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>42144.725023148145</v>
       </c>
     </row>
@@ -31018,7 +30901,7 @@
       <c r="N30">
         <v>90</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>42144.725706018522</v>
       </c>
     </row>
@@ -31065,7 +30948,7 @@
       <c r="N31">
         <v>90</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>42144.726388888892</v>
       </c>
     </row>
@@ -31112,7 +30995,7 @@
       <c r="N32">
         <v>90</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <v>42144.727083333331</v>
       </c>
     </row>
@@ -31159,7 +31042,7 @@
       <c r="N33">
         <v>90</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="3">
         <v>42144.727777777778</v>
       </c>
     </row>
@@ -31206,7 +31089,7 @@
       <c r="N34">
         <v>90</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <v>42144.728460648148</v>
       </c>
     </row>
@@ -31253,7 +31136,7 @@
       <c r="N35">
         <v>90</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <v>42144.729155092595</v>
       </c>
     </row>
@@ -31300,7 +31183,7 @@
       <c r="N36">
         <v>90</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <v>42144.729849537034</v>
       </c>
     </row>
@@ -31347,7 +31230,7 @@
       <c r="N37">
         <v>90</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <v>42144.730532407404</v>
       </c>
     </row>
@@ -31394,7 +31277,7 @@
       <c r="N38">
         <v>90</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <v>42144.731203703705</v>
       </c>
     </row>
@@ -31441,7 +31324,7 @@
       <c r="N39">
         <v>90</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <v>42144.731886574074</v>
       </c>
     </row>
@@ -31488,7 +31371,7 @@
       <c r="N40">
         <v>90</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <v>42144.732581018521</v>
       </c>
     </row>
@@ -31535,7 +31418,7 @@
       <c r="N41">
         <v>90</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="3">
         <v>42144.733275462961</v>
       </c>
     </row>
@@ -31582,7 +31465,7 @@
       <c r="N42">
         <v>90</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="3">
         <v>42144.733958333331</v>
       </c>
     </row>
@@ -31629,7 +31512,7 @@
       <c r="N43">
         <v>90</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="3">
         <v>42144.734652777777</v>
       </c>
     </row>
@@ -31676,7 +31559,7 @@
       <c r="N44">
         <v>90</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="3">
         <v>42144.735335648147</v>
       </c>
     </row>
@@ -31723,7 +31606,7 @@
       <c r="N45">
         <v>90</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="3">
         <v>42144.736030092594</v>
       </c>
     </row>
@@ -31770,7 +31653,7 @@
       <c r="N46">
         <v>90</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="3">
         <v>42144.736724537041</v>
       </c>
     </row>
@@ -31817,7 +31700,7 @@
       <c r="N47">
         <v>90</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="3">
         <v>42144.73741898148</v>
       </c>
     </row>
@@ -31864,7 +31747,7 @@
       <c r="N48">
         <v>90</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="3">
         <v>42144.73810185185</v>
       </c>
     </row>
@@ -31911,7 +31794,7 @@
       <c r="N49">
         <v>90</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="3">
         <v>42144.738796296297</v>
       </c>
     </row>
@@ -31958,7 +31841,7 @@
       <c r="N50">
         <v>90</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="3">
         <v>42144.73946759259</v>
       </c>
     </row>
@@ -32005,7 +31888,7 @@
       <c r="N51">
         <v>90</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="3">
         <v>42144.740173611113</v>
       </c>
     </row>
@@ -32052,7 +31935,7 @@
       <c r="N52">
         <v>90</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="3">
         <v>42144.740868055553</v>
       </c>
     </row>
@@ -32099,7 +31982,7 @@
       <c r="N53">
         <v>90</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="3">
         <v>42144.741585648146</v>
       </c>
     </row>
@@ -32146,7 +32029,7 @@
       <c r="N54">
         <v>90</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="3">
         <v>42144.742268518516</v>
       </c>
     </row>
@@ -32193,7 +32076,7 @@
       <c r="N55">
         <v>90</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="3">
         <v>42144.742962962962</v>
       </c>
     </row>
@@ -32240,7 +32123,7 @@
       <c r="N56">
         <v>90</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="3">
         <v>42144.743645833332</v>
       </c>
     </row>
@@ -32287,7 +32170,7 @@
       <c r="N57">
         <v>90</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="3">
         <v>42144.744305555556</v>
       </c>
     </row>
@@ -32334,7 +32217,7 @@
       <c r="N58">
         <v>90</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="3">
         <v>42144.74496527778</v>
       </c>
     </row>
@@ -32381,7 +32264,7 @@
       <c r="N59">
         <v>90</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="3">
         <v>42144.745636574073</v>
       </c>
     </row>
@@ -32428,7 +32311,7 @@
       <c r="N60">
         <v>90</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="3">
         <v>42144.746331018519</v>
       </c>
     </row>
@@ -32475,7 +32358,7 @@
       <c r="N61">
         <v>90</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="3">
         <v>42144.747048611112</v>
       </c>
     </row>
@@ -32522,7 +32405,7 @@
       <c r="N62">
         <v>90</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="3">
         <v>42144.747719907406</v>
       </c>
     </row>
@@ -32569,7 +32452,7 @@
       <c r="N63">
         <v>90</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="3">
         <v>42144.748414351852</v>
       </c>
     </row>
@@ -32616,7 +32499,7 @@
       <c r="N64">
         <v>90</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="3">
         <v>42144.749108796299</v>
       </c>
     </row>
@@ -32663,7 +32546,7 @@
       <c r="N65">
         <v>90</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="3">
         <v>42144.749803240738</v>
       </c>
     </row>
@@ -32710,7 +32593,7 @@
       <c r="N66">
         <v>90</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="3">
         <v>42144.750486111108</v>
       </c>
     </row>
@@ -32757,7 +32640,7 @@
       <c r="N67">
         <v>90</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="3">
         <v>42144.751168981478</v>
       </c>
     </row>
@@ -32804,7 +32687,7 @@
       <c r="N68">
         <v>90</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="3">
         <v>42144.751863425925</v>
       </c>
     </row>
@@ -32851,7 +32734,7 @@
       <c r="N69">
         <v>90</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="3">
         <v>42144.752546296295</v>
       </c>
     </row>
@@ -32898,7 +32781,7 @@
       <c r="N70">
         <v>90</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="3">
         <v>42144.753240740742</v>
       </c>
     </row>
@@ -32945,7 +32828,7 @@
       <c r="N71">
         <v>90</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="3">
         <v>42144.753923611112</v>
       </c>
     </row>
@@ -32992,7 +32875,7 @@
       <c r="N72">
         <v>90</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72" s="3">
         <v>42144.754606481481</v>
       </c>
     </row>
@@ -33039,7 +32922,7 @@
       <c r="N73">
         <v>90</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="3">
         <v>42144.755300925928</v>
       </c>
     </row>
@@ -33086,7 +32969,7 @@
       <c r="N74">
         <v>90</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74" s="3">
         <v>42144.756018518521</v>
       </c>
     </row>
@@ -33133,7 +33016,7 @@
       <c r="N75">
         <v>90</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O75" s="3">
         <v>42144.756712962961</v>
       </c>
     </row>
@@ -33180,7 +33063,7 @@
       <c r="N76">
         <v>90</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O76" s="3">
         <v>42144.757395833331</v>
       </c>
     </row>
@@ -33227,7 +33110,7 @@
       <c r="N77">
         <v>90</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O77" s="3">
         <v>42144.7580787037</v>
       </c>
     </row>
@@ -33274,7 +33157,7 @@
       <c r="N78">
         <v>90</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78" s="3">
         <v>42144.758784722224</v>
       </c>
     </row>
@@ -33321,7 +33204,7 @@
       <c r="N79">
         <v>90</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O79" s="3">
         <v>42144.759456018517</v>
       </c>
     </row>
@@ -33368,7 +33251,7 @@
       <c r="N80">
         <v>90</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80" s="3">
         <v>42144.760150462964</v>
       </c>
     </row>
@@ -33415,7 +33298,7 @@
       <c r="N81">
         <v>90</v>
       </c>
-      <c r="O81" s="5">
+      <c r="O81" s="3">
         <v>42144.760833333334</v>
       </c>
     </row>
@@ -33462,7 +33345,7 @@
       <c r="N82">
         <v>90</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82" s="3">
         <v>42144.761516203704</v>
       </c>
     </row>
@@ -33509,7 +33392,7 @@
       <c r="N83">
         <v>90</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83" s="3">
         <v>42144.762187499997</v>
       </c>
     </row>
@@ -33556,7 +33439,7 @@
       <c r="N84">
         <v>90</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84" s="3">
         <v>42144.762858796297</v>
       </c>
     </row>
@@ -33603,7 +33486,7 @@
       <c r="N85">
         <v>90</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O85" s="3">
         <v>42144.763518518521</v>
       </c>
     </row>
@@ -33650,7 +33533,7 @@
       <c r="N86">
         <v>90</v>
       </c>
-      <c r="O86" s="5">
+      <c r="O86" s="3">
         <v>42144.764189814814</v>
       </c>
     </row>
@@ -33697,7 +33580,7 @@
       <c r="N87">
         <v>90</v>
       </c>
-      <c r="O87" s="5">
+      <c r="O87" s="3">
         <v>42144.764861111114</v>
       </c>
     </row>
@@ -33744,7 +33627,7 @@
       <c r="N88">
         <v>90</v>
       </c>
-      <c r="O88" s="5">
+      <c r="O88" s="3">
         <v>42144.765532407408</v>
       </c>
     </row>
@@ -33791,7 +33674,7 @@
       <c r="N89">
         <v>90</v>
       </c>
-      <c r="O89" s="5">
+      <c r="O89" s="3">
         <v>42144.766215277778</v>
       </c>
     </row>
@@ -33838,7 +33721,7 @@
       <c r="N90">
         <v>90</v>
       </c>
-      <c r="O90" s="5">
+      <c r="O90" s="3">
         <v>42144.766909722224</v>
       </c>
     </row>
@@ -33885,7 +33768,7 @@
       <c r="N91">
         <v>90</v>
       </c>
-      <c r="O91" s="5">
+      <c r="O91" s="3">
         <v>42144.76761574074</v>
       </c>
     </row>
@@ -33932,7 +33815,7 @@
       <c r="N92">
         <v>90</v>
       </c>
-      <c r="O92" s="5">
+      <c r="O92" s="3">
         <v>42144.76829861111</v>
       </c>
     </row>
@@ -33979,7 +33862,7 @@
       <c r="N93">
         <v>90</v>
       </c>
-      <c r="O93" s="5">
+      <c r="O93" s="3">
         <v>42144.768969907411</v>
       </c>
     </row>
@@ -34026,7 +33909,7 @@
       <c r="N94">
         <v>90</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="3">
         <v>42144.769618055558</v>
       </c>
     </row>
@@ -34073,7 +33956,7 @@
       <c r="N95">
         <v>90</v>
       </c>
-      <c r="O95" s="5">
+      <c r="O95" s="3">
         <v>42144.770289351851</v>
       </c>
     </row>
@@ -34120,7 +34003,7 @@
       <c r="N96">
         <v>90</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O96" s="3">
         <v>42144.770983796298</v>
       </c>
     </row>
@@ -34167,7 +34050,7 @@
       <c r="N97">
         <v>90</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O97" s="3">
         <v>42144.771666666667</v>
       </c>
     </row>
@@ -34214,7 +34097,7 @@
       <c r="N98">
         <v>90</v>
       </c>
-      <c r="O98" s="5">
+      <c r="O98" s="3">
         <v>42144.772349537037</v>
       </c>
     </row>
@@ -34261,7 +34144,7 @@
       <c r="N99">
         <v>90</v>
       </c>
-      <c r="O99" s="5">
+      <c r="O99" s="3">
         <v>42144.773009259261</v>
       </c>
     </row>
@@ -34308,7 +34191,7 @@
       <c r="N100">
         <v>90</v>
       </c>
-      <c r="O100" s="5">
+      <c r="O100" s="3">
         <v>42144.773692129631</v>
       </c>
     </row>
@@ -34355,7 +34238,7 @@
       <c r="N101">
         <v>90</v>
       </c>
-      <c r="O101" s="6">
+      <c r="O101" s="4">
         <v>42144.774398148147</v>
       </c>
     </row>
@@ -34469,7 +34352,7 @@
       <c r="N2">
         <v>15</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>42144.698194444441</v>
       </c>
     </row>
@@ -34516,7 +34399,7 @@
       <c r="N3">
         <v>15</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>42144.698217592595</v>
       </c>
     </row>
@@ -34563,7 +34446,7 @@
       <c r="N4">
         <v>15</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>42144.698240740741</v>
       </c>
     </row>
@@ -34610,7 +34493,7 @@
       <c r="N5">
         <v>15</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>42144.698263888888</v>
       </c>
     </row>
@@ -34657,7 +34540,7 @@
       <c r="N6">
         <v>15</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>42144.698287037034</v>
       </c>
     </row>
@@ -34704,7 +34587,7 @@
       <c r="N7">
         <v>15</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>42144.698298611111</v>
       </c>
     </row>
@@ -34751,7 +34634,7 @@
       <c r="N8">
         <v>15</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>42144.698321759257</v>
       </c>
     </row>
@@ -34798,7 +34681,7 @@
       <c r="N9">
         <v>15</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>42144.698344907411</v>
       </c>
     </row>
@@ -34845,7 +34728,7 @@
       <c r="N10">
         <v>15</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42144.69835648148</v>
       </c>
     </row>
@@ -34892,7 +34775,7 @@
       <c r="N11">
         <v>15</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>42144.698379629626</v>
       </c>
     </row>
@@ -34939,7 +34822,7 @@
       <c r="N12">
         <v>15</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>42144.69840277778</v>
       </c>
     </row>
@@ -34986,7 +34869,7 @@
       <c r="N13">
         <v>15</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>42144.698425925926</v>
       </c>
     </row>
@@ -35033,7 +34916,7 @@
       <c r="N14">
         <v>15</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>42144.698437500003</v>
       </c>
     </row>
@@ -35080,7 +34963,7 @@
       <c r="N15">
         <v>15</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>42144.698460648149</v>
       </c>
     </row>
@@ -35127,7 +35010,7 @@
       <c r="N16">
         <v>15</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>42144.698483796295</v>
       </c>
     </row>
@@ -35174,7 +35057,7 @@
       <c r="N17">
         <v>15</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>42144.698495370372</v>
       </c>
     </row>
@@ -35221,7 +35104,7 @@
       <c r="N18">
         <v>15</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>42144.698518518519</v>
       </c>
     </row>
@@ -35268,7 +35151,7 @@
       <c r="N19">
         <v>15</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>42144.698541666665</v>
       </c>
     </row>
@@ -35315,7 +35198,7 @@
       <c r="N20">
         <v>15</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>42144.698564814818</v>
       </c>
     </row>
@@ -35362,7 +35245,7 @@
       <c r="N21">
         <v>15</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>42144.698576388888</v>
       </c>
     </row>
@@ -35409,7 +35292,7 @@
       <c r="N22">
         <v>15</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>42144.698599537034</v>
       </c>
     </row>
@@ -35456,7 +35339,7 @@
       <c r="N23">
         <v>15</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>42144.698622685188</v>
       </c>
     </row>
@@ -35503,7 +35386,7 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>42144.698634259257</v>
       </c>
     </row>
@@ -35550,7 +35433,7 @@
       <c r="N25">
         <v>15</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="3">
         <v>42144.698657407411</v>
       </c>
     </row>
@@ -35597,7 +35480,7 @@
       <c r="N26">
         <v>15</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>42144.698680555557</v>
       </c>
     </row>
@@ -35644,7 +35527,7 @@
       <c r="N27">
         <v>15</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>42144.698692129627</v>
       </c>
     </row>
@@ -35691,7 +35574,7 @@
       <c r="N28">
         <v>15</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>42144.69871527778</v>
       </c>
     </row>
@@ -35738,7 +35621,7 @@
       <c r="N29">
         <v>15</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>42144.698738425926</v>
       </c>
     </row>
@@ -35785,7 +35668,7 @@
       <c r="N30">
         <v>15</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>42144.698750000003</v>
       </c>
     </row>
@@ -35832,7 +35715,7 @@
       <c r="N31">
         <v>15</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>42144.698773148149</v>
       </c>
     </row>
@@ -35879,7 +35762,7 @@
       <c r="N32">
         <v>15</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <v>42144.698796296296</v>
       </c>
     </row>
@@ -35926,7 +35809,7 @@
       <c r="N33">
         <v>15</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="3">
         <v>42144.698807870373</v>
       </c>
     </row>
@@ -35973,7 +35856,7 @@
       <c r="N34">
         <v>15</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <v>42144.698831018519</v>
       </c>
     </row>
@@ -36020,7 +35903,7 @@
       <c r="N35">
         <v>15</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <v>42144.698854166665</v>
       </c>
     </row>
@@ -36067,7 +35950,7 @@
       <c r="N36">
         <v>15</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <v>42144.698865740742</v>
       </c>
     </row>
@@ -36114,7 +35997,7 @@
       <c r="N37">
         <v>15</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <v>42144.698888888888</v>
       </c>
     </row>
@@ -36161,7 +36044,7 @@
       <c r="N38">
         <v>15</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <v>42144.698912037034</v>
       </c>
     </row>
@@ -36208,7 +36091,7 @@
       <c r="N39">
         <v>15</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <v>42144.698923611111</v>
       </c>
     </row>
@@ -36255,7 +36138,7 @@
       <c r="N40">
         <v>15</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <v>42144.698946759258</v>
       </c>
     </row>
@@ -36302,7 +36185,7 @@
       <c r="N41">
         <v>15</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="3">
         <v>42144.698969907404</v>
       </c>
     </row>
@@ -36349,7 +36232,7 @@
       <c r="N42">
         <v>15</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="3">
         <v>42144.698981481481</v>
       </c>
     </row>
@@ -36396,7 +36279,7 @@
       <c r="N43">
         <v>15</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="3">
         <v>42144.699004629627</v>
       </c>
     </row>
@@ -36443,7 +36326,7 @@
       <c r="N44">
         <v>15</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="3">
         <v>42144.69902777778</v>
       </c>
     </row>
@@ -36490,7 +36373,7 @@
       <c r="N45">
         <v>15</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="3">
         <v>42144.69903935185</v>
       </c>
     </row>
@@ -36537,7 +36420,7 @@
       <c r="N46">
         <v>15</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="3">
         <v>42144.699062500003</v>
       </c>
     </row>
@@ -36584,7 +36467,7 @@
       <c r="N47">
         <v>15</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="3">
         <v>42144.69908564815</v>
       </c>
     </row>
@@ -36631,7 +36514,7 @@
       <c r="N48">
         <v>15</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="3">
         <v>42144.699108796296</v>
       </c>
     </row>
@@ -36678,7 +36561,7 @@
       <c r="N49">
         <v>15</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="3">
         <v>42144.699131944442</v>
       </c>
     </row>
@@ -36725,7 +36608,7 @@
       <c r="N50">
         <v>15</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="3">
         <v>42144.699155092596</v>
       </c>
     </row>
@@ -36772,7 +36655,7 @@
       <c r="N51">
         <v>15</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="3">
         <v>42144.699178240742</v>
       </c>
     </row>
@@ -36819,7 +36702,7 @@
       <c r="N52">
         <v>15</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="3">
         <v>42144.699189814812</v>
       </c>
     </row>
@@ -36866,7 +36749,7 @@
       <c r="N53">
         <v>15</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="3">
         <v>42144.699212962965</v>
       </c>
     </row>
@@ -36913,7 +36796,7 @@
       <c r="N54">
         <v>15</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="3">
         <v>42144.699236111112</v>
       </c>
     </row>
@@ -36960,7 +36843,7 @@
       <c r="N55">
         <v>15</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="3">
         <v>42144.699247685188</v>
       </c>
     </row>
@@ -37007,7 +36890,7 @@
       <c r="N56">
         <v>15</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="3">
         <v>42144.699270833335</v>
       </c>
     </row>
@@ -37054,7 +36937,7 @@
       <c r="N57">
         <v>15</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="3">
         <v>42144.699293981481</v>
       </c>
     </row>
@@ -37101,7 +36984,7 @@
       <c r="N58">
         <v>15</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="3">
         <v>42144.699305555558</v>
       </c>
     </row>
@@ -37148,7 +37031,7 @@
       <c r="N59">
         <v>15</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="3">
         <v>42144.699328703704</v>
       </c>
     </row>
@@ -37195,7 +37078,7 @@
       <c r="N60">
         <v>15</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="3">
         <v>42144.69935185185</v>
       </c>
     </row>
@@ -37242,7 +37125,7 @@
       <c r="N61">
         <v>15</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="3">
         <v>42144.699374999997</v>
       </c>
     </row>
@@ -37289,7 +37172,7 @@
       <c r="N62">
         <v>15</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="3">
         <v>42144.699386574073</v>
       </c>
     </row>
@@ -37336,7 +37219,7 @@
       <c r="N63">
         <v>15</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="3">
         <v>42144.69940972222</v>
       </c>
     </row>
@@ -37383,7 +37266,7 @@
       <c r="N64">
         <v>15</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="3">
         <v>42144.699432870373</v>
       </c>
     </row>
@@ -37430,7 +37313,7 @@
       <c r="N65">
         <v>15</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="3">
         <v>42144.699456018519</v>
       </c>
     </row>
@@ -37477,7 +37360,7 @@
       <c r="N66">
         <v>15</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="3">
         <v>42144.699467592596</v>
       </c>
     </row>
@@ -37524,7 +37407,7 @@
       <c r="N67">
         <v>15</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="3">
         <v>42144.699490740742</v>
       </c>
     </row>
@@ -37571,7 +37454,7 @@
       <c r="N68">
         <v>15</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="3">
         <v>42144.699513888889</v>
       </c>
     </row>
@@ -37618,7 +37501,7 @@
       <c r="N69">
         <v>15</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="3">
         <v>42144.699537037035</v>
       </c>
     </row>
@@ -37665,7 +37548,7 @@
       <c r="N70">
         <v>15</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="3">
         <v>42144.699560185189</v>
       </c>
     </row>
@@ -37712,7 +37595,7 @@
       <c r="N71">
         <v>15</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="3">
         <v>42144.699583333335</v>
       </c>
     </row>
@@ -37759,7 +37642,7 @@
       <c r="N72">
         <v>15</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72" s="3">
         <v>42144.699606481481</v>
       </c>
     </row>
@@ -37806,7 +37689,7 @@
       <c r="N73">
         <v>15</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="3">
         <v>42144.699629629627</v>
       </c>
     </row>
@@ -37853,7 +37736,7 @@
       <c r="N74">
         <v>15</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74" s="3">
         <v>42144.699652777781</v>
       </c>
     </row>
@@ -37900,7 +37783,7 @@
       <c r="N75">
         <v>15</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O75" s="3">
         <v>42144.699664351851</v>
       </c>
     </row>
@@ -37947,7 +37830,7 @@
       <c r="N76">
         <v>15</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O76" s="3">
         <v>42144.699687499997</v>
       </c>
     </row>
@@ -37994,7 +37877,7 @@
       <c r="N77">
         <v>15</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O77" s="3">
         <v>42144.69971064815</v>
       </c>
     </row>
@@ -38041,7 +37924,7 @@
       <c r="N78">
         <v>15</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78" s="3">
         <v>42144.69972222222</v>
       </c>
     </row>
@@ -38088,7 +37971,7 @@
       <c r="N79">
         <v>15</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O79" s="3">
         <v>42144.699745370373</v>
       </c>
     </row>
@@ -38135,7 +38018,7 @@
       <c r="N80">
         <v>15</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80" s="3">
         <v>42144.69976851852</v>
       </c>
     </row>
@@ -38182,7 +38065,7 @@
       <c r="N81">
         <v>15</v>
       </c>
-      <c r="O81" s="5">
+      <c r="O81" s="3">
         <v>42144.699791666666</v>
       </c>
     </row>
@@ -38229,7 +38112,7 @@
       <c r="N82">
         <v>15</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82" s="3">
         <v>42144.699814814812</v>
       </c>
     </row>
@@ -38276,7 +38159,7 @@
       <c r="N83">
         <v>15</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83" s="3">
         <v>42144.699837962966</v>
       </c>
     </row>
@@ -38323,7 +38206,7 @@
       <c r="N84">
         <v>15</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84" s="3">
         <v>42144.699861111112</v>
       </c>
     </row>
@@ -38370,7 +38253,7 @@
       <c r="N85">
         <v>15</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O85" s="3">
         <v>42144.699884259258</v>
       </c>
     </row>
@@ -38417,7 +38300,7 @@
       <c r="N86">
         <v>15</v>
       </c>
-      <c r="O86" s="5">
+      <c r="O86" s="3">
         <v>42144.699895833335</v>
       </c>
     </row>
@@ -38464,7 +38347,7 @@
       <c r="N87">
         <v>15</v>
       </c>
-      <c r="O87" s="5">
+      <c r="O87" s="3">
         <v>42144.699930555558</v>
       </c>
     </row>
@@ -38511,7 +38394,7 @@
       <c r="N88">
         <v>15</v>
       </c>
-      <c r="O88" s="5">
+      <c r="O88" s="3">
         <v>42144.699953703705</v>
       </c>
     </row>
@@ -38558,7 +38441,7 @@
       <c r="N89">
         <v>15</v>
       </c>
-      <c r="O89" s="5">
+      <c r="O89" s="3">
         <v>42144.699976851851</v>
       </c>
     </row>
@@ -38605,7 +38488,7 @@
       <c r="N90">
         <v>15</v>
       </c>
-      <c r="O90" s="5">
+      <c r="O90" s="3">
         <v>42144.7</v>
       </c>
     </row>
@@ -38652,7 +38535,7 @@
       <c r="N91">
         <v>15</v>
       </c>
-      <c r="O91" s="5">
+      <c r="O91" s="3">
         <v>42144.700023148151</v>
       </c>
     </row>
@@ -38699,7 +38582,7 @@
       <c r="N92">
         <v>15</v>
       </c>
-      <c r="O92" s="5">
+      <c r="O92" s="3">
         <v>42144.700046296297</v>
       </c>
     </row>
@@ -38746,7 +38629,7 @@
       <c r="N93">
         <v>15</v>
       </c>
-      <c r="O93" s="5">
+      <c r="O93" s="3">
         <v>42144.700069444443</v>
       </c>
     </row>
@@ -38793,7 +38676,7 @@
       <c r="N94">
         <v>15</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="3">
         <v>42144.70008101852</v>
       </c>
     </row>
@@ -38840,7 +38723,7 @@
       <c r="N95">
         <v>15</v>
       </c>
-      <c r="O95" s="5">
+      <c r="O95" s="3">
         <v>42144.700104166666</v>
       </c>
     </row>
@@ -38887,7 +38770,7 @@
       <c r="N96">
         <v>15</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O96" s="3">
         <v>42144.700138888889</v>
       </c>
     </row>
@@ -38934,7 +38817,7 @@
       <c r="N97">
         <v>15</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O97" s="3">
         <v>42144.700150462966</v>
       </c>
     </row>
@@ -38981,7 +38864,7 @@
       <c r="N98">
         <v>15</v>
       </c>
-      <c r="O98" s="5">
+      <c r="O98" s="3">
         <v>42144.700173611112</v>
       </c>
     </row>
@@ -39028,7 +38911,7 @@
       <c r="N99">
         <v>15</v>
       </c>
-      <c r="O99" s="5">
+      <c r="O99" s="3">
         <v>42144.700196759259</v>
       </c>
     </row>
@@ -39075,7 +38958,7 @@
       <c r="N100">
         <v>15</v>
       </c>
-      <c r="O100" s="5">
+      <c r="O100" s="3">
         <v>42144.700208333335</v>
       </c>
     </row>
@@ -39122,7 +39005,7 @@
       <c r="N101">
         <v>15</v>
       </c>
-      <c r="O101" s="5">
+      <c r="O101" s="3">
         <v>42144.700231481482</v>
       </c>
     </row>
@@ -39235,7 +39118,7 @@
       <c r="N2">
         <v>15</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>42144.696319444447</v>
       </c>
     </row>
@@ -39282,7 +39165,7 @@
       <c r="N3">
         <v>15</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="3">
         <v>42144.696319444447</v>
       </c>
     </row>
@@ -39329,7 +39212,7 @@
       <c r="N4">
         <v>15</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="3">
         <v>42144.696319444447</v>
       </c>
     </row>
@@ -39376,7 +39259,7 @@
       <c r="N5">
         <v>15</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="3">
         <v>42144.696331018517</v>
       </c>
     </row>
@@ -39423,7 +39306,7 @@
       <c r="N6">
         <v>15</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>42144.696331018517</v>
       </c>
     </row>
@@ -39470,7 +39353,7 @@
       <c r="N7">
         <v>15</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>42144.696342592593</v>
       </c>
     </row>
@@ -39517,7 +39400,7 @@
       <c r="N8">
         <v>15</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>42144.696342592593</v>
       </c>
     </row>
@@ -39564,7 +39447,7 @@
       <c r="N9">
         <v>15</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>42144.696342592593</v>
       </c>
     </row>
@@ -39611,7 +39494,7 @@
       <c r="N10">
         <v>15</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>42144.696342592593</v>
       </c>
     </row>
@@ -39658,7 +39541,7 @@
       <c r="N11">
         <v>15</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="3">
         <v>42144.69635416667</v>
       </c>
     </row>
@@ -39705,7 +39588,7 @@
       <c r="N12">
         <v>15</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>42144.69635416667</v>
       </c>
     </row>
@@ -39752,7 +39635,7 @@
       <c r="N13">
         <v>15</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>42144.69635416667</v>
       </c>
     </row>
@@ -39799,7 +39682,7 @@
       <c r="N14">
         <v>15</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>42144.69635416667</v>
       </c>
     </row>
@@ -39846,7 +39729,7 @@
       <c r="N15">
         <v>15</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>42144.69636574074</v>
       </c>
     </row>
@@ -39893,7 +39776,7 @@
       <c r="N16">
         <v>15</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <v>42144.69636574074</v>
       </c>
     </row>
@@ -39940,7 +39823,7 @@
       <c r="N17">
         <v>15</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="3">
         <v>42144.69636574074</v>
       </c>
     </row>
@@ -39987,7 +39870,7 @@
       <c r="N18">
         <v>15</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="3">
         <v>42144.69636574074</v>
       </c>
     </row>
@@ -40034,7 +39917,7 @@
       <c r="N19">
         <v>15</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -40081,7 +39964,7 @@
       <c r="N20">
         <v>15</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -40128,7 +40011,7 @@
       <c r="N21">
         <v>15</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -40175,7 +40058,7 @@
       <c r="N22">
         <v>15</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -40222,7 +40105,7 @@
       <c r="N23">
         <v>15</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="3">
         <v>42144.696377314816</v>
       </c>
     </row>
@@ -40269,7 +40152,7 @@
       <c r="N24">
         <v>15</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -40316,7 +40199,7 @@
       <c r="N25">
         <v>15</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -40363,7 +40246,7 @@
       <c r="N26">
         <v>15</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -40410,7 +40293,7 @@
       <c r="N27">
         <v>15</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -40457,7 +40340,7 @@
       <c r="N28">
         <v>15</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="3">
         <v>42144.696388888886</v>
       </c>
     </row>
@@ -40504,7 +40387,7 @@
       <c r="N29">
         <v>15</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -40551,7 +40434,7 @@
       <c r="N30">
         <v>15</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -40598,7 +40481,7 @@
       <c r="N31">
         <v>15</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -40645,7 +40528,7 @@
       <c r="N32">
         <v>15</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -40692,7 +40575,7 @@
       <c r="N33">
         <v>15</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="3">
         <v>42144.696400462963</v>
       </c>
     </row>
@@ -40739,7 +40622,7 @@
       <c r="N34">
         <v>15</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="3">
         <v>42144.696412037039</v>
       </c>
     </row>
@@ -40786,7 +40669,7 @@
       <c r="N35">
         <v>15</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="3">
         <v>42144.696412037039</v>
       </c>
     </row>
@@ -40833,7 +40716,7 @@
       <c r="N36">
         <v>15</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="3">
         <v>42144.696412037039</v>
       </c>
     </row>
@@ -40880,7 +40763,7 @@
       <c r="N37">
         <v>15</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="3">
         <v>42144.696412037039</v>
       </c>
     </row>
@@ -40927,7 +40810,7 @@
       <c r="N38">
         <v>15</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
         <v>42144.696412037039</v>
       </c>
     </row>
@@ -40974,7 +40857,7 @@
       <c r="N39">
         <v>15</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="3">
         <v>42144.696412037039</v>
       </c>
     </row>
@@ -41021,7 +40904,7 @@
       <c r="N40">
         <v>15</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="3">
         <v>42144.696423611109</v>
       </c>
     </row>
@@ -41068,7 +40951,7 @@
       <c r="N41">
         <v>15</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="3">
         <v>42144.696423611109</v>
       </c>
     </row>
@@ -41115,7 +40998,7 @@
       <c r="N42">
         <v>15</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="3">
         <v>42144.696423611109</v>
       </c>
     </row>
@@ -41162,7 +41045,7 @@
       <c r="N43">
         <v>15</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="3">
         <v>42144.696423611109</v>
       </c>
     </row>
@@ -41209,7 +41092,7 @@
       <c r="N44">
         <v>15</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="3">
         <v>42144.696423611109</v>
       </c>
     </row>
@@ -41256,7 +41139,7 @@
       <c r="N45">
         <v>15</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="3">
         <v>42144.696435185186</v>
       </c>
     </row>
@@ -41303,7 +41186,7 @@
       <c r="N46">
         <v>15</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="3">
         <v>42144.696435185186</v>
       </c>
     </row>
@@ -41350,7 +41233,7 @@
       <c r="N47">
         <v>15</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="3">
         <v>42144.696435185186</v>
       </c>
     </row>
@@ -41397,7 +41280,7 @@
       <c r="N48">
         <v>15</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="3">
         <v>42144.696435185186</v>
       </c>
     </row>
@@ -41444,7 +41327,7 @@
       <c r="N49">
         <v>15</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="3">
         <v>42144.696435185186</v>
       </c>
     </row>
@@ -41491,7 +41374,7 @@
       <c r="N50">
         <v>15</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="3">
         <v>42144.696446759262</v>
       </c>
     </row>
@@ -41538,7 +41421,7 @@
       <c r="N51">
         <v>15</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="3">
         <v>42144.696446759262</v>
       </c>
     </row>
@@ -41585,7 +41468,7 @@
       <c r="N52">
         <v>15</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="3">
         <v>42144.696446759262</v>
       </c>
     </row>
@@ -41632,7 +41515,7 @@
       <c r="N53">
         <v>15</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53" s="3">
         <v>42144.696446759262</v>
       </c>
     </row>
@@ -41679,7 +41562,7 @@
       <c r="N54">
         <v>15</v>
       </c>
-      <c r="O54" s="5">
+      <c r="O54" s="3">
         <v>42144.696446759262</v>
       </c>
     </row>
@@ -41726,7 +41609,7 @@
       <c r="N55">
         <v>15</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O55" s="3">
         <v>42144.696458333332</v>
       </c>
     </row>
@@ -41773,7 +41656,7 @@
       <c r="N56">
         <v>15</v>
       </c>
-      <c r="O56" s="5">
+      <c r="O56" s="3">
         <v>42144.696458333332</v>
       </c>
     </row>
@@ -41820,7 +41703,7 @@
       <c r="N57">
         <v>15</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O57" s="3">
         <v>42144.696458333332</v>
       </c>
     </row>
@@ -41867,7 +41750,7 @@
       <c r="N58">
         <v>15</v>
       </c>
-      <c r="O58" s="5">
+      <c r="O58" s="3">
         <v>42144.696458333332</v>
       </c>
     </row>
@@ -41914,7 +41797,7 @@
       <c r="N59">
         <v>15</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="3">
         <v>42144.696458333332</v>
       </c>
     </row>
@@ -41961,7 +41844,7 @@
       <c r="N60">
         <v>15</v>
       </c>
-      <c r="O60" s="5">
+      <c r="O60" s="3">
         <v>42144.696469907409</v>
       </c>
     </row>
@@ -42008,7 +41891,7 @@
       <c r="N61">
         <v>15</v>
       </c>
-      <c r="O61" s="5">
+      <c r="O61" s="3">
         <v>42144.696469907409</v>
       </c>
     </row>
@@ -42055,7 +41938,7 @@
       <c r="N62">
         <v>15</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O62" s="3">
         <v>42144.696469907409</v>
       </c>
     </row>
@@ -42102,7 +41985,7 @@
       <c r="N63">
         <v>15</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63" s="3">
         <v>42144.696469907409</v>
       </c>
     </row>
@@ -42149,7 +42032,7 @@
       <c r="N64">
         <v>15</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64" s="3">
         <v>42144.696469907409</v>
       </c>
     </row>
@@ -42196,7 +42079,7 @@
       <c r="N65">
         <v>15</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="3">
         <v>42144.696481481478</v>
       </c>
     </row>
@@ -42243,7 +42126,7 @@
       <c r="N66">
         <v>15</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="3">
         <v>42144.696481481478</v>
       </c>
     </row>
@@ -42290,7 +42173,7 @@
       <c r="N67">
         <v>15</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="3">
         <v>42144.696481481478</v>
       </c>
     </row>
@@ -42337,7 +42220,7 @@
       <c r="N68">
         <v>15</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="3">
         <v>42144.696481481478</v>
       </c>
     </row>
@@ -42384,7 +42267,7 @@
       <c r="N69">
         <v>15</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="3">
         <v>42144.696481481478</v>
       </c>
     </row>
@@ -42431,7 +42314,7 @@
       <c r="N70">
         <v>15</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="3">
         <v>42144.696493055555</v>
       </c>
     </row>
@@ -42478,7 +42361,7 @@
       <c r="N71">
         <v>15</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="3">
         <v>42144.696493055555</v>
       </c>
     </row>
@@ -42525,7 +42408,7 @@
       <c r="N72">
         <v>15</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72" s="3">
         <v>42144.696493055555</v>
       </c>
     </row>
@@ -42572,7 +42455,7 @@
       <c r="N73">
         <v>15</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="3">
         <v>42144.696493055555</v>
       </c>
     </row>
@@ -42619,7 +42502,7 @@
       <c r="N74">
         <v>15</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74" s="3">
         <v>42144.696493055555</v>
       </c>
     </row>
@@ -42666,7 +42549,7 @@
       <c r="N75">
         <v>15</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O75" s="3">
         <v>42144.696504629632</v>
       </c>
     </row>
@@ -42713,7 +42596,7 @@
       <c r="N76">
         <v>15</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O76" s="3">
         <v>42144.696504629632</v>
       </c>
     </row>
@@ -42760,7 +42643,7 @@
       <c r="N77">
         <v>15</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O77" s="3">
         <v>42144.696504629632</v>
       </c>
     </row>
@@ -42807,7 +42690,7 @@
       <c r="N78">
         <v>15</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78" s="3">
         <v>42144.696504629632</v>
       </c>
     </row>
@@ -42854,7 +42737,7 @@
       <c r="N79">
         <v>15</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O79" s="3">
         <v>42144.696504629632</v>
       </c>
     </row>
@@ -42901,7 +42784,7 @@
       <c r="N80">
         <v>15</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80" s="3">
         <v>42144.696516203701</v>
       </c>
     </row>
@@ -42948,7 +42831,7 @@
       <c r="N81">
         <v>15</v>
       </c>
-      <c r="O81" s="5">
+      <c r="O81" s="3">
         <v>42144.696516203701</v>
       </c>
     </row>
@@ -42995,7 +42878,7 @@
       <c r="N82">
         <v>15</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82" s="3">
         <v>42144.696516203701</v>
       </c>
     </row>
@@ -43042,7 +42925,7 @@
       <c r="N83">
         <v>15</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83" s="3">
         <v>42144.696516203701</v>
       </c>
     </row>
@@ -43089,7 +42972,7 @@
       <c r="N84">
         <v>15</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84" s="3">
         <v>42144.696516203701</v>
       </c>
     </row>
@@ -43136,7 +43019,7 @@
       <c r="N85">
         <v>15</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O85" s="3">
         <v>42144.696527777778</v>
       </c>
     </row>
@@ -43183,7 +43066,7 @@
       <c r="N86">
         <v>15</v>
       </c>
-      <c r="O86" s="5">
+      <c r="O86" s="3">
         <v>42144.696527777778</v>
       </c>
     </row>
@@ -43230,7 +43113,7 @@
       <c r="N87">
         <v>15</v>
       </c>
-      <c r="O87" s="5">
+      <c r="O87" s="3">
         <v>42144.696527777778</v>
       </c>
     </row>
@@ -43277,7 +43160,7 @@
       <c r="N88">
         <v>15</v>
       </c>
-      <c r="O88" s="5">
+      <c r="O88" s="3">
         <v>42144.696527777778</v>
       </c>
     </row>
@@ -43324,7 +43207,7 @@
       <c r="N89">
         <v>15</v>
       </c>
-      <c r="O89" s="5">
+      <c r="O89" s="3">
         <v>42144.696527777778</v>
       </c>
     </row>
@@ -43371,7 +43254,7 @@
       <c r="N90">
         <v>15</v>
       </c>
-      <c r="O90" s="5">
+      <c r="O90" s="3">
         <v>42144.696539351855</v>
       </c>
     </row>
@@ -43418,7 +43301,7 @@
       <c r="N91">
         <v>15</v>
       </c>
-      <c r="O91" s="5">
+      <c r="O91" s="3">
         <v>42144.696539351855</v>
       </c>
     </row>
@@ -43465,7 +43348,7 @@
       <c r="N92">
         <v>15</v>
       </c>
-      <c r="O92" s="5">
+      <c r="O92" s="3">
         <v>42144.696539351855</v>
       </c>
     </row>
@@ -43512,7 +43395,7 @@
       <c r="N93">
         <v>15</v>
       </c>
-      <c r="O93" s="5">
+      <c r="O93" s="3">
         <v>42144.696539351855</v>
       </c>
     </row>
@@ -43559,7 +43442,7 @@
       <c r="N94">
         <v>15</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="3">
         <v>42144.696539351855</v>
       </c>
     </row>
@@ -43606,7 +43489,7 @@
       <c r="N95">
         <v>15</v>
       </c>
-      <c r="O95" s="5">
+      <c r="O95" s="3">
         <v>42144.696550925924</v>
       </c>
     </row>
@@ -43653,7 +43536,7 @@
       <c r="N96">
         <v>15</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O96" s="3">
         <v>42144.696550925924</v>
       </c>
     </row>
@@ -43700,7 +43583,7 @@
       <c r="N97">
         <v>15</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O97" s="3">
         <v>42144.696550925924</v>
       </c>
     </row>
@@ -43747,7 +43630,7 @@
       <c r="N98">
         <v>15</v>
       </c>
-      <c r="O98" s="5">
+      <c r="O98" s="3">
         <v>42144.696550925924</v>
       </c>
     </row>
@@ -43794,7 +43677,7 @@
       <c r="N99">
         <v>15</v>
       </c>
-      <c r="O99" s="5">
+      <c r="O99" s="3">
         <v>42144.696550925924</v>
       </c>
     </row>
@@ -43841,7 +43724,7 @@
       <c r="N100">
         <v>15</v>
       </c>
-      <c r="O100" s="5">
+      <c r="O100" s="3">
         <v>42144.696562500001</v>
       </c>
     </row>
@@ -43888,7 +43771,7 @@
       <c r="N101">
         <v>15</v>
       </c>
-      <c r="O101" s="5">
+      <c r="O101" s="3">
         <v>42144.696562500001</v>
       </c>
     </row>

--- a/doc/Experiment results of BLIA.xlsx
+++ b/doc/Experiment results of BLIA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="6720" tabRatio="897" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11415" windowHeight="6720" tabRatio="897" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1-Table3" sheetId="1" r:id="rId1"/>
@@ -1356,11 +1356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="3009088"/>
-        <c:axId val="211487096"/>
+        <c:axId val="127635512"/>
+        <c:axId val="213019992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3009088"/>
+        <c:axId val="127635512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1479,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211487096"/>
+        <c:crossAx val="213019992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211487096"/>
+        <c:axId val="213019992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1586,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3009088"/>
+        <c:crossAx val="127635512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3009,12 +3009,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="158262312"/>
-        <c:axId val="213421992"/>
-        <c:axId val="213370440"/>
+        <c:axId val="213453720"/>
+        <c:axId val="213453328"/>
+        <c:axId val="214753176"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="158262312"/>
+        <c:axId val="213453720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3099,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213421992"/>
+        <c:crossAx val="213453328"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +3107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213421992"/>
+        <c:axId val="213453328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -3133,12 +3133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158262312"/>
+        <c:crossAx val="213453720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213370440"/>
+        <c:axId val="214753176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3222,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213421992"/>
+        <c:crossAx val="213453328"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -3635,11 +3635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213474408"/>
-        <c:axId val="213474800"/>
+        <c:axId val="214399664"/>
+        <c:axId val="214613664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213474408"/>
+        <c:axId val="214399664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3753,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213474800"/>
+        <c:crossAx val="214613664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3761,7 +3761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213474800"/>
+        <c:axId val="214613664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -3862,7 +3862,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213474408"/>
+        <c:crossAx val="214399664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4240,11 +4240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213475584"/>
-        <c:axId val="213475976"/>
+        <c:axId val="214614448"/>
+        <c:axId val="214614840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213475584"/>
+        <c:axId val="214614448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4357,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213475976"/>
+        <c:crossAx val="214614840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4365,7 +4365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213475976"/>
+        <c:axId val="214614840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -4466,7 +4466,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213475584"/>
+        <c:crossAx val="214614448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5249,7 +5249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5473,11 +5472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213923960"/>
-        <c:axId val="213924352"/>
+        <c:axId val="214616408"/>
+        <c:axId val="214616800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213923960"/>
+        <c:axId val="214616408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,7 +5523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5591,7 +5589,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213924352"/>
+        <c:crossAx val="214616800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5599,7 +5597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213924352"/>
+        <c:axId val="214616800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -5633,7 +5631,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5700,7 +5697,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213923960"/>
+        <c:crossAx val="214616408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5714,7 +5711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5822,7 +5818,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6046,11 +6041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213925136"/>
-        <c:axId val="213925528"/>
+        <c:axId val="215353864"/>
+        <c:axId val="215354256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213925136"/>
+        <c:axId val="215353864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6096,7 +6091,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6163,7 +6157,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213925528"/>
+        <c:crossAx val="215354256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6171,7 +6165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213925528"/>
+        <c:axId val="215354256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -6206,7 +6200,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6273,7 +6266,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213925136"/>
+        <c:crossAx val="215353864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.000000000000001E-2"/>
@@ -6288,7 +6281,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6742,11 +6734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211714488"/>
-        <c:axId val="211489552"/>
+        <c:axId val="212685664"/>
+        <c:axId val="212367024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211714488"/>
+        <c:axId val="212685664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6875,7 +6867,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211489552"/>
+        <c:crossAx val="212367024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6883,7 +6875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211489552"/>
+        <c:axId val="212367024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6982,7 +6974,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211714488"/>
+        <c:crossAx val="212685664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7449,11 +7441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211776816"/>
-        <c:axId val="211396432"/>
+        <c:axId val="212466520"/>
+        <c:axId val="212466904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211776816"/>
+        <c:axId val="212466520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,7 +7565,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211396432"/>
+        <c:crossAx val="212466904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7581,7 +7573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211396432"/>
+        <c:axId val="212466904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7681,7 +7673,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211776816"/>
+        <c:crossAx val="212466520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8149,11 +8141,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158259568"/>
-        <c:axId val="158260352"/>
+        <c:axId val="213359848"/>
+        <c:axId val="104706664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158259568"/>
+        <c:axId val="213359848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8283,7 +8275,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158260352"/>
+        <c:crossAx val="104706664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8291,7 +8283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158260352"/>
+        <c:axId val="104706664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8391,7 +8383,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158259568"/>
+        <c:crossAx val="213359848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9813,12 +9805,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="158261136"/>
-        <c:axId val="158261528"/>
-        <c:axId val="212062856"/>
+        <c:axId val="213455288"/>
+        <c:axId val="213455680"/>
+        <c:axId val="213343000"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="158261136"/>
+        <c:axId val="213455288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9903,7 +9895,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158261528"/>
+        <c:crossAx val="213455680"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9911,7 +9903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158261528"/>
+        <c:axId val="213455680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.14000000000000001"/>
@@ -9936,12 +9928,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158261136"/>
+        <c:crossAx val="213455288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="212062856"/>
+        <c:axId val="213343000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10025,7 +10017,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158261528"/>
+        <c:crossAx val="213455680"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -11525,12 +11517,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="212412096"/>
-        <c:axId val="212412488"/>
-        <c:axId val="212455864"/>
+        <c:axId val="213456464"/>
+        <c:axId val="213920808"/>
+        <c:axId val="213924904"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="212412096"/>
+        <c:axId val="213456464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11571,6 +11563,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11615,7 +11608,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212412488"/>
+        <c:crossAx val="213920808"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11623,7 +11616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212412488"/>
+        <c:axId val="213920808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -11649,12 +11642,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212412096"/>
+        <c:crossAx val="213456464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="212455864"/>
+        <c:axId val="213924904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11695,6 +11688,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11738,7 +11732,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212412488"/>
+        <c:crossAx val="213920808"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -11791,6 +11785,27 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13197,12 +13212,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="212413272"/>
-        <c:axId val="212413664"/>
-        <c:axId val="212867728"/>
+        <c:axId val="213921592"/>
+        <c:axId val="213921984"/>
+        <c:axId val="214020040"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="212413272"/>
+        <c:axId val="213921592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13288,7 +13303,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212413664"/>
+        <c:crossAx val="213921984"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13296,7 +13311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212413664"/>
+        <c:axId val="213921984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.14000000000000001"/>
@@ -13322,12 +13337,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212413272"/>
+        <c:crossAx val="213921592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="212867728"/>
+        <c:axId val="214020040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13412,7 +13427,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212413664"/>
+        <c:crossAx val="213921984"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -14932,12 +14947,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="212411312"/>
-        <c:axId val="212414448"/>
-        <c:axId val="213122976"/>
+        <c:axId val="213922768"/>
+        <c:axId val="213923160"/>
+        <c:axId val="214455536"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="212411312"/>
+        <c:axId val="213922768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14978,6 +14993,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15022,7 +15038,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212414448"/>
+        <c:crossAx val="213923160"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15030,7 +15046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212414448"/>
+        <c:axId val="213923160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.25"/>
@@ -15056,12 +15072,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212411312"/>
+        <c:crossAx val="213922768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213122976"/>
+        <c:axId val="214455536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15102,6 +15118,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15145,7 +15162,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212414448"/>
+        <c:crossAx val="213923160"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -15198,6 +15215,67 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16604,12 +16682,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="212411704"/>
-        <c:axId val="158263096"/>
-        <c:axId val="211738744"/>
+        <c:axId val="213454896"/>
+        <c:axId val="213454504"/>
+        <c:axId val="214320856"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="212411704"/>
+        <c:axId val="213454896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16694,7 +16772,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158263096"/>
+        <c:crossAx val="213454504"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16702,7 +16780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158263096"/>
+        <c:axId val="213454504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.14000000000000001"/>
@@ -16728,12 +16806,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212411704"/>
+        <c:crossAx val="213454896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="211738744"/>
+        <c:axId val="214320856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16817,7 +16895,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158263096"/>
+        <c:crossAx val="213454504"/>
         <c:crosses val="max"/>
       </c:serAx>
       <c:spPr>
@@ -24712,8 +24790,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25068,23 +25146,23 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C19" si="10">C10/$C$13</f>
+        <f>C10/$C$13</f>
         <v>9.4736842105263147E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D19" si="11">D10/$D$13</f>
+        <f>D10/$D$13</f>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E19" si="12">E10/$E$13</f>
+        <f>E10/$E$13</f>
         <v>8.2352941176470587E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F19" si="13">F10/$F$13</f>
+        <f>F10/$F$13</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G19" si="14">AVERAGE(B17:F17)</f>
+        <f t="shared" ref="G17:G19" si="10">AVERAGE(B17:F17)</f>
         <v>8.8195734434124526E-2</v>
       </c>
     </row>
@@ -25097,23 +25175,23 @@
         <v>0.5</v>
       </c>
       <c r="C18">
+        <f>C11/$C$13</f>
+        <v>0.47368421052631571</v>
+      </c>
+      <c r="D18">
+        <f>D11/$D$13</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="E18">
+        <f>E11/$E$13</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="F18">
+        <f>F11/$F$13</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="10"/>
-        <v>0.47368421052631571</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="11"/>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="12"/>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="13"/>
-        <v>0.37499999999999994</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="14"/>
         <v>0.44097867217062259</v>
       </c>
     </row>
@@ -25126,23 +25204,23 @@
         <v>0</v>
       </c>
       <c r="C19">
+        <f>C12/$C$13</f>
+        <v>5.2631578947368411E-2</v>
+      </c>
+      <c r="D19">
+        <f>D12/$D$13</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="E19">
+        <f>E12/$E$13</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F19">
+        <f>F12/$F$13</f>
+        <v>0.25</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="10"/>
-        <v>5.2631578947368411E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="11"/>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="12"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="14"/>
         <v>0.11804265565875474</v>
       </c>
     </row>
@@ -25152,30 +25230,31 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:G20" si="15">SUM(C16:C19)</f>
+        <f t="shared" ref="C20:G20" si="11">SUM(C16:C19)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="D20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="E20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -43788,8 +43867,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
